--- a/notebooks/SPTAN1/input/SPTAN1_DEVEP_individuals.xlsx
+++ b/notebooks/SPTAN1/input/SPTAN1_DEVEP_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/SPTAN1/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/SPTAN1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BD79D5-93CD-C74B-80F8-D801783C855A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0246AB7-6856-9342-BBFA-C6D635D00198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="3380" windowWidth="27640" windowHeight="20460" xr2:uid="{14D29156-2706-EC44-A2FD-9BF8DD13290F}"/>
+    <workbookView xWindow="11640" yWindow="680" windowWidth="27640" windowHeight="19680" xr2:uid="{14D29156-2706-EC44-A2FD-9BF8DD13290F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="176">
   <si>
     <t>PMID</t>
   </si>
@@ -555,13 +555,22 @@
   </si>
   <si>
     <t>optional</t>
+  </si>
+  <si>
+    <t>deceased</t>
+  </si>
+  <si>
+    <t>yes/no/na</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -594,6 +603,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -603,7 +620,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -611,15 +628,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,12 +989,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1C54D3-0DFB-AE43-B0F0-A72A9C7D4ADB}">
-  <dimension ref="A1:AS23"/>
+  <dimension ref="A1:AT23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -967,10 +1002,10 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="25.1640625" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="29" width="10.83203125" customWidth="1"/>
+    <col min="4" max="30" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,101 +1048,104 @@
       <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>145</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>171</v>
       </c>
@@ -1150,101 +1188,104 @@
       <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" t="s">
+        <v>174</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="Q2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>48</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>54</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>56</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>58</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>146</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>148</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>150</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>64</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>69</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>71</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>152</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>154</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>156</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>158</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>73</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>75</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>77</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>79</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>81</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>168</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>83</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>160</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>162</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>164</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>166</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1285,20 +1326,20 @@
         <v>33</v>
       </c>
       <c r="O3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P3" t="s">
         <v>36</v>
       </c>
-      <c r="P3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q3" t="s">
         <v>17</v>
       </c>
       <c r="R3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" t="s">
         <v>49</v>
       </c>
-      <c r="S3" t="s">
-        <v>52</v>
-      </c>
       <c r="T3" t="s">
         <v>52</v>
       </c>
@@ -1318,10 +1359,10 @@
         <v>52</v>
       </c>
       <c r="Z3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AA3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AB3" t="s">
         <v>52</v>
@@ -1333,13 +1374,13 @@
         <v>52</v>
       </c>
       <c r="AE3" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AF3" t="s">
         <v>17</v>
       </c>
       <c r="AG3" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="s">
         <v>52</v>
@@ -1357,10 +1398,10 @@
         <v>52</v>
       </c>
       <c r="AM3" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AN3" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="s">
         <v>52</v>
@@ -1369,16 +1410,19 @@
         <v>52</v>
       </c>
       <c r="AQ3" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AR3" t="s">
         <v>17</v>
       </c>
       <c r="AS3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1419,25 +1463,25 @@
         <v>32</v>
       </c>
       <c r="O4" t="s">
+        <v>175</v>
+      </c>
+      <c r="P4" t="s">
         <v>36</v>
       </c>
-      <c r="P4" t="s">
-        <v>17</v>
-      </c>
       <c r="Q4" t="s">
         <v>17</v>
       </c>
       <c r="R4" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T4" t="s">
         <v>50</v>
       </c>
       <c r="U4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V4" t="s">
         <v>52</v>
@@ -1455,25 +1499,25 @@
         <v>52</v>
       </c>
       <c r="AA4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AB4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AC4" t="s">
         <v>52</v>
       </c>
       <c r="AD4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AE4" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AF4" t="s">
         <v>17</v>
       </c>
       <c r="AG4" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="s">
         <v>52</v>
@@ -1491,10 +1535,10 @@
         <v>52</v>
       </c>
       <c r="AM4" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AN4" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AO4" t="s">
         <v>52</v>
@@ -1503,16 +1547,19 @@
         <v>52</v>
       </c>
       <c r="AQ4" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AR4" t="s">
         <v>17</v>
       </c>
       <c r="AS4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1553,16 +1600,16 @@
         <v>34</v>
       </c>
       <c r="O5" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" t="s">
         <v>36</v>
       </c>
-      <c r="P5" t="s">
-        <v>17</v>
-      </c>
       <c r="Q5" t="s">
         <v>17</v>
       </c>
       <c r="R5" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="S5" t="s">
         <v>52</v>
@@ -1586,7 +1633,7 @@
         <v>52</v>
       </c>
       <c r="Z5" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AA5" t="s">
         <v>17</v>
@@ -1598,22 +1645,22 @@
         <v>17</v>
       </c>
       <c r="AD5" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="s">
         <v>17</v>
       </c>
       <c r="AG5" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AI5" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="s">
         <v>52</v>
@@ -1625,10 +1672,10 @@
         <v>52</v>
       </c>
       <c r="AM5" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AN5" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="s">
         <v>52</v>
@@ -1637,16 +1684,19 @@
         <v>52</v>
       </c>
       <c r="AQ5" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AR5" t="s">
         <v>17</v>
       </c>
       <c r="AS5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1687,23 +1737,23 @@
         <v>34</v>
       </c>
       <c r="O6" t="s">
+        <v>175</v>
+      </c>
+      <c r="P6" t="s">
         <v>36</v>
       </c>
-      <c r="P6" t="s">
-        <v>17</v>
-      </c>
       <c r="Q6" t="s">
         <v>17</v>
       </c>
       <c r="R6" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="S6" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" t="s">
         <v>51</v>
       </c>
-      <c r="T6" t="s">
-        <v>52</v>
-      </c>
       <c r="U6" t="s">
         <v>52</v>
       </c>
@@ -1726,7 +1776,7 @@
         <v>52</v>
       </c>
       <c r="AB6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AC6" t="s">
         <v>65</v>
@@ -1735,16 +1785,16 @@
         <v>65</v>
       </c>
       <c r="AE6" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="s">
         <v>17</v>
       </c>
       <c r="AG6" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AI6" t="s">
         <v>65</v>
@@ -1759,28 +1809,31 @@
         <v>65</v>
       </c>
       <c r="AM6" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AN6" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="s">
         <v>52</v>
       </c>
       <c r="AP6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AQ6" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AR6" t="s">
         <v>17</v>
       </c>
       <c r="AS6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1821,16 +1874,16 @@
         <v>35</v>
       </c>
       <c r="O7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P7" t="s">
         <v>36</v>
       </c>
-      <c r="P7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q7" t="s">
         <v>17</v>
       </c>
       <c r="R7" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="S7" t="s">
         <v>52</v>
@@ -1839,11 +1892,11 @@
         <v>52</v>
       </c>
       <c r="U7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7" t="s">
         <v>59</v>
       </c>
-      <c r="V7" t="s">
-        <v>52</v>
-      </c>
       <c r="W7" t="s">
         <v>52</v>
       </c>
@@ -1851,31 +1904,31 @@
         <v>52</v>
       </c>
       <c r="Y7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z7" t="s">
         <v>62</v>
       </c>
-      <c r="Z7" t="s">
-        <v>65</v>
-      </c>
       <c r="AA7" t="s">
         <v>65</v>
       </c>
       <c r="AB7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AC7" t="s">
         <v>52</v>
       </c>
       <c r="AD7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AE7" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="s">
         <v>17</v>
       </c>
       <c r="AG7" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="s">
         <v>52</v>
@@ -1893,28 +1946,31 @@
         <v>52</v>
       </c>
       <c r="AM7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AN7" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AP7" t="s">
         <v>52</v>
       </c>
       <c r="AQ7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AR7" t="s">
         <v>17</v>
       </c>
       <c r="AS7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -1955,13 +2011,13 @@
         <v>35</v>
       </c>
       <c r="O8" t="s">
+        <v>175</v>
+      </c>
+      <c r="P8" t="s">
         <v>36</v>
       </c>
-      <c r="P8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R8" t="s">
-        <v>52</v>
+      <c r="Q8" t="s">
+        <v>17</v>
       </c>
       <c r="S8" t="s">
         <v>52</v>
@@ -1982,10 +2038,10 @@
         <v>52</v>
       </c>
       <c r="Y8" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="Z8" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AA8" t="s">
         <v>17</v>
@@ -1997,7 +2053,7 @@
         <v>17</v>
       </c>
       <c r="AD8" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="s">
         <v>65</v>
@@ -2006,19 +2062,19 @@
         <v>65</v>
       </c>
       <c r="AG8" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AH8" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AI8" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AK8" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="s">
         <v>52</v>
@@ -2030,22 +2086,25 @@
         <v>52</v>
       </c>
       <c r="AO8" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AP8" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AQ8" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AR8" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AS8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -2086,13 +2145,13 @@
         <v>128</v>
       </c>
       <c r="O9" t="s">
+        <v>175</v>
+      </c>
+      <c r="P9" t="s">
         <v>36</v>
       </c>
-      <c r="P9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" t="s">
-        <v>52</v>
+      <c r="Q9" t="s">
+        <v>17</v>
       </c>
       <c r="S9" t="s">
         <v>52</v>
@@ -2116,7 +2175,7 @@
         <v>52</v>
       </c>
       <c r="Z9" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AA9" t="s">
         <v>17</v>
@@ -2128,28 +2187,28 @@
         <v>17</v>
       </c>
       <c r="AD9" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AG9" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AH9" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AI9" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AK9" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="s">
         <v>52</v>
@@ -2158,10 +2217,10 @@
         <v>52</v>
       </c>
       <c r="AN9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO9" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AP9" t="s">
         <v>52</v>
@@ -2173,10 +2232,13 @@
         <v>52</v>
       </c>
       <c r="AS9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -2214,13 +2276,13 @@
         <v>129</v>
       </c>
       <c r="O10" t="s">
+        <v>175</v>
+      </c>
+      <c r="P10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" t="s">
-        <v>17</v>
-      </c>
-      <c r="R10" t="s">
-        <v>52</v>
+      <c r="Q10" t="s">
+        <v>17</v>
       </c>
       <c r="S10" t="s">
         <v>52</v>
@@ -2244,7 +2306,7 @@
         <v>52</v>
       </c>
       <c r="Z10" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AA10" t="s">
         <v>17</v>
@@ -2256,28 +2318,28 @@
         <v>17</v>
       </c>
       <c r="AD10" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AG10" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AH10" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AI10" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AK10" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="s">
         <v>52</v>
@@ -2301,10 +2363,13 @@
         <v>52</v>
       </c>
       <c r="AS10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -2342,13 +2407,13 @@
         <v>130</v>
       </c>
       <c r="O11" t="s">
+        <v>175</v>
+      </c>
+      <c r="P11" t="s">
         <v>142</v>
       </c>
-      <c r="P11" t="s">
-        <v>17</v>
-      </c>
-      <c r="R11" t="s">
-        <v>52</v>
+      <c r="Q11" t="s">
+        <v>17</v>
       </c>
       <c r="S11" t="s">
         <v>52</v>
@@ -2372,7 +2437,7 @@
         <v>52</v>
       </c>
       <c r="Z11" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AA11" t="s">
         <v>17</v>
@@ -2384,7 +2449,7 @@
         <v>17</v>
       </c>
       <c r="AD11" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AE11" t="s">
         <v>52</v>
@@ -2393,19 +2458,19 @@
         <v>52</v>
       </c>
       <c r="AG11" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AH11" t="s">
         <v>17</v>
       </c>
       <c r="AI11" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AK11" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="s">
         <v>52</v>
@@ -2429,10 +2494,13 @@
         <v>52</v>
       </c>
       <c r="AS11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -2472,16 +2540,16 @@
       <c r="N12" t="s">
         <v>131</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" t="s">
+        <v>175</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" t="s">
-        <v>52</v>
-      </c>
+      <c r="Q12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" s="3"/>
       <c r="S12" t="s">
         <v>52</v>
       </c>
@@ -2504,7 +2572,7 @@
         <v>52</v>
       </c>
       <c r="Z12" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AA12" t="s">
         <v>17</v>
@@ -2516,10 +2584,10 @@
         <v>17</v>
       </c>
       <c r="AD12" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>52</v>
+        <v>17</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>65</v>
       </c>
       <c r="AF12" s="3" t="s">
         <v>52</v>
@@ -2527,17 +2595,17 @@
       <c r="AG12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH12" t="s">
-        <v>17</v>
+      <c r="AH12" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="AI12" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AK12" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="s">
         <v>52</v>
@@ -2561,10 +2629,13 @@
         <v>52</v>
       </c>
       <c r="AS12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -2604,16 +2675,16 @@
       <c r="N13" t="s">
         <v>51</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" t="s">
+        <v>175</v>
+      </c>
+      <c r="P13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" t="s">
-        <v>52</v>
-      </c>
+      <c r="Q13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="3"/>
       <c r="S13" t="s">
         <v>52</v>
       </c>
@@ -2648,7 +2719,7 @@
         <v>52</v>
       </c>
       <c r="AD13" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AE13" t="s">
         <v>65</v>
@@ -2660,16 +2731,16 @@
         <v>65</v>
       </c>
       <c r="AH13" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AI13" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AK13" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AL13" t="s">
         <v>52</v>
@@ -2693,10 +2764,13 @@
         <v>52</v>
       </c>
       <c r="AS13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -2736,16 +2810,16 @@
       <c r="N14" t="s">
         <v>51</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" t="s">
+        <v>175</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" t="s">
-        <v>52</v>
-      </c>
+      <c r="Q14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" s="3"/>
       <c r="S14" t="s">
         <v>52</v>
       </c>
@@ -2768,7 +2842,7 @@
         <v>52</v>
       </c>
       <c r="Z14" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AA14" t="s">
         <v>17</v>
@@ -2780,7 +2854,7 @@
         <v>17</v>
       </c>
       <c r="AD14" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="s">
         <v>65</v>
@@ -2789,46 +2863,49 @@
         <v>65</v>
       </c>
       <c r="AG14" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AH14" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AI14" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AK14" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AL14" t="s">
         <v>52</v>
       </c>
       <c r="AM14" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN14" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AO14" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AP14" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AQ14" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AS14" t="s">
         <v>65</v>
       </c>
+      <c r="AT14" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -2865,16 +2942,16 @@
       <c r="N15" t="s">
         <v>132</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" t="s">
+        <v>175</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" t="s">
-        <v>52</v>
-      </c>
+      <c r="Q15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="3"/>
       <c r="S15" t="s">
         <v>52</v>
       </c>
@@ -2912,52 +2989,55 @@
         <v>52</v>
       </c>
       <c r="AE15" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AF15" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AG15" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AI15" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AK15" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="s">
         <v>52</v>
       </c>
       <c r="AM15" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN15" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AO15" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AP15" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AQ15" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AS15" t="s">
         <v>65</v>
       </c>
+      <c r="AT15" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -2997,16 +3077,16 @@
       <c r="N16" t="s">
         <v>51</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" t="s">
+        <v>175</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="P16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" t="s">
-        <v>52</v>
-      </c>
+      <c r="Q16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" s="3"/>
       <c r="S16" t="s">
         <v>52</v>
       </c>
@@ -3029,7 +3109,7 @@
         <v>52</v>
       </c>
       <c r="Z16" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AA16" t="s">
         <v>17</v>
@@ -3044,25 +3124,25 @@
         <v>17</v>
       </c>
       <c r="AE16" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="s">
         <v>65</v>
       </c>
       <c r="AG16" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AH16" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AI16" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AK16" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="s">
         <v>52</v>
@@ -3080,16 +3160,19 @@
         <v>52</v>
       </c>
       <c r="AQ16" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AR16" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AS16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -3129,16 +3212,16 @@
       <c r="N17" t="s">
         <v>133</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" t="s">
+        <v>175</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" t="s">
-        <v>52</v>
-      </c>
+      <c r="Q17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17" s="3"/>
       <c r="S17" t="s">
         <v>52</v>
       </c>
@@ -3158,10 +3241,10 @@
         <v>52</v>
       </c>
       <c r="Y17" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="Z17" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AA17" t="s">
         <v>52</v>
@@ -3176,25 +3259,25 @@
         <v>52</v>
       </c>
       <c r="AE17" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AF17" t="s">
         <v>65</v>
       </c>
       <c r="AG17" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AH17" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AI17" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AK17" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="s">
         <v>52</v>
@@ -3218,10 +3301,13 @@
         <v>52</v>
       </c>
       <c r="AS17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -3261,16 +3347,16 @@
       <c r="N18" t="s">
         <v>134</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" t="s">
+        <v>175</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" t="s">
-        <v>52</v>
-      </c>
+      <c r="Q18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="3"/>
       <c r="S18" t="s">
         <v>52</v>
       </c>
@@ -3293,7 +3379,7 @@
         <v>52</v>
       </c>
       <c r="Z18" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AA18" t="s">
         <v>17</v>
@@ -3305,28 +3391,28 @@
         <v>17</v>
       </c>
       <c r="AD18" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="s">
         <v>52</v>
       </c>
       <c r="AF18" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AG18" t="s">
         <v>65</v>
       </c>
       <c r="AH18" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AI18" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AJ18" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AK18" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="s">
         <v>52</v>
@@ -3352,8 +3438,11 @@
       <c r="AS18" t="s">
         <v>52</v>
       </c>
+      <c r="AT18" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -3393,24 +3482,24 @@
       <c r="N19" t="s">
         <v>128</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O19" t="s">
+        <v>175</v>
+      </c>
+      <c r="P19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P19" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R19" t="s">
-        <v>52</v>
+      <c r="R19" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="S19" t="s">
+        <v>52</v>
+      </c>
+      <c r="T19" t="s">
         <v>49</v>
       </c>
-      <c r="T19" t="s">
-        <v>52</v>
-      </c>
       <c r="U19" t="s">
         <v>52</v>
       </c>
@@ -3424,11 +3513,11 @@
         <v>52</v>
       </c>
       <c r="Y19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z19" t="s">
         <v>49</v>
       </c>
-      <c r="Z19" t="s">
-        <v>17</v>
-      </c>
       <c r="AA19" t="s">
         <v>17</v>
       </c>
@@ -3439,7 +3528,7 @@
         <v>17</v>
       </c>
       <c r="AD19" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="s">
         <v>65</v>
@@ -3451,43 +3540,46 @@
         <v>65</v>
       </c>
       <c r="AH19" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AI19" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AJ19" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AK19" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AL19" t="s">
         <v>52</v>
       </c>
       <c r="AM19" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AN19" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AO19" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AP19" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AQ19" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AR19" t="s">
         <v>52</v>
       </c>
       <c r="AS19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -3527,18 +3619,18 @@
       <c r="N20" t="s">
         <v>59</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" t="s">
+        <v>175</v>
+      </c>
+      <c r="P20" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="R20" t="s">
-        <v>52</v>
-      </c>
       <c r="S20" t="s">
         <v>52</v>
       </c>
@@ -3561,7 +3653,7 @@
         <v>52</v>
       </c>
       <c r="Z20" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AA20" t="s">
         <v>17</v>
@@ -3573,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="AD20" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="s">
         <v>65</v>
@@ -3582,19 +3674,19 @@
         <v>65</v>
       </c>
       <c r="AG20" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AH20" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AI20" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AJ20" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AK20" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="s">
         <v>52</v>
@@ -3606,22 +3698,25 @@
         <v>52</v>
       </c>
       <c r="AO20" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AP20" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AQ20" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AR20" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AS20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -3661,31 +3756,31 @@
       <c r="N21" t="s">
         <v>34</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="O21" t="s">
+        <v>175</v>
+      </c>
+      <c r="P21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q21" s="3"/>
-      <c r="R21" t="s">
-        <v>52</v>
-      </c>
-      <c r="S21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R21" s="3"/>
+      <c r="S21" t="s">
+        <v>52</v>
+      </c>
+      <c r="T21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="T21" t="s">
-        <v>52</v>
-      </c>
       <c r="U21" t="s">
         <v>52</v>
       </c>
       <c r="V21" t="s">
+        <v>52</v>
+      </c>
+      <c r="W21" t="s">
         <v>59</v>
       </c>
-      <c r="W21" t="s">
-        <v>52</v>
-      </c>
       <c r="X21" t="s">
         <v>52</v>
       </c>
@@ -3693,7 +3788,7 @@
         <v>52</v>
       </c>
       <c r="Z21" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AA21" t="s">
         <v>17</v>
@@ -3705,7 +3800,7 @@
         <v>17</v>
       </c>
       <c r="AD21" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="s">
         <v>65</v>
@@ -3714,19 +3809,19 @@
         <v>65</v>
       </c>
       <c r="AG21" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AH21" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AI21" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AJ21" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AK21" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AL21" t="s">
         <v>52</v>
@@ -3752,8 +3847,11 @@
       <c r="AS21" t="s">
         <v>52</v>
       </c>
+      <c r="AT21" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -3793,16 +3891,16 @@
       <c r="N22" t="s">
         <v>128</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" t="s">
+        <v>175</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q22" s="3"/>
-      <c r="R22" t="s">
-        <v>52</v>
-      </c>
+      <c r="Q22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="3"/>
       <c r="S22" t="s">
         <v>52</v>
       </c>
@@ -3813,13 +3911,13 @@
         <v>52</v>
       </c>
       <c r="V22" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="W22" t="s">
         <v>133</v>
       </c>
       <c r="X22" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="Y22" t="s">
         <v>52</v>
@@ -3831,34 +3929,34 @@
         <v>52</v>
       </c>
       <c r="AB22" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AC22" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AD22" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AE22" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AF22" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AG22" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AH22" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AI22" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AK22" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AL22" t="s">
         <v>52</v>
@@ -3867,10 +3965,10 @@
         <v>52</v>
       </c>
       <c r="AN22" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO22" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AP22" t="s">
         <v>52</v>
@@ -3884,8 +3982,11 @@
       <c r="AS22" t="s">
         <v>52</v>
       </c>
+      <c r="AT22" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -3925,16 +4026,16 @@
       <c r="N23" t="s">
         <v>134</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O23" t="s">
+        <v>175</v>
+      </c>
+      <c r="P23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q23" s="3"/>
-      <c r="R23" t="s">
-        <v>52</v>
-      </c>
+      <c r="Q23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" s="3"/>
       <c r="S23" t="s">
         <v>52</v>
       </c>
@@ -3951,11 +4052,11 @@
         <v>52</v>
       </c>
       <c r="X23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y23" t="s">
         <v>138</v>
       </c>
-      <c r="Y23" t="s">
-        <v>52</v>
-      </c>
       <c r="Z23" t="s">
         <v>52</v>
       </c>
@@ -3969,7 +4070,7 @@
         <v>52</v>
       </c>
       <c r="AD23" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AE23" t="s">
         <v>65</v>
@@ -3981,16 +4082,16 @@
         <v>65</v>
       </c>
       <c r="AH23" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AI23" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AK23" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="s">
         <v>52</v>
@@ -4014,6 +4115,9 @@
         <v>52</v>
       </c>
       <c r="AS23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT23" t="s">
         <v>52</v>
       </c>
     </row>
